--- a/biology/Botanique/Brasénie_de_Schreber/Brasénie_de_Schreber.xlsx
+++ b/biology/Botanique/Brasénie_de_Schreber/Brasénie_de_Schreber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bras%C3%A9nie_de_Schreber</t>
+          <t>Brasénie_de_Schreber</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brasenia schreberi
-La Brasénie de Schreber (Brasenia schreberi), est une espèce de plantes de la famille des Cabombaceae qui est originaire des régions tempérées et subtropicales d'Afrique, d'Asie, d'Australie et d'Amérique[1]. C'est la seule unique espèce classée dans le genre Brasenia.
+La Brasénie de Schreber (Brasenia schreberi), est une espèce de plantes de la famille des Cabombaceae qui est originaire des régions tempérées et subtropicales d'Afrique, d'Asie, d'Australie et d'Amérique. C'est la seule unique espèce classée dans le genre Brasenia.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bras%C3%A9nie_de_Schreber</t>
+          <t>Brasénie_de_Schreber</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique vient du botaniste allemand J.-Ch. von Schreber (1739–1810)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique vient du botaniste allemand J.-Ch. von Schreber (1739–1810).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bras%C3%A9nie_de_Schreber</t>
+          <t>Brasénie_de_Schreber</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Brasénie de Schreber est une plante herbacée vivace aquatique à rhizome. Les feuilles flottantes presque rondes, mesurent 6 cm de diamètre et portent chacun un long pétiole[1]. La fleur pourpre mesure entre 10 et 12 mm de diamètre et possède des étamines voyantes[2],[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Brasénie de Schreber est une plante herbacée vivace aquatique à rhizome. Les feuilles flottantes presque rondes, mesurent 6 cm de diamètre et portent chacun un long pétiole. La fleur pourpre mesure entre 10 et 12 mm de diamètre et possède des étamines voyantes.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bras%C3%A9nie_de_Schreber</t>
+          <t>Brasénie_de_Schreber</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présente en Amérique du Nord dans l'est des États-Unis et des régions tropicales, en Afrique Occidentale, en Asie du Sud et en Australie, elle pousse dans des sols vaseux ensoleillées des eaux peu profondes et calmes[1],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Présente en Amérique du Nord dans l'est des États-Unis et des régions tropicales, en Afrique Occidentale, en Asie du Sud et en Australie, elle pousse dans des sols vaseux ensoleillées des eaux peu profondes et calmes,.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bras%C3%A9nie_de_Schreber</t>
+          <t>Brasénie_de_Schreber</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,12 +625,87 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentaires
-En Chine, on utilise la plante cuite avec de la carpe et du tofu[1]. Le coréens en font une tisane.
-Médicaux
-La Brasénie de Schreber est utilisé à des fins médicinales par les aborigènes américains pour ses propriétés anthelminthiques et astringentes[1].
-Horticole
-Elle est aussi utilisée comme plante ornementale des bordures des étangs[1].
+          <t>Alimentaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Chine, on utilise la plante cuite avec de la carpe et du tofu. Le coréens en font une tisane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brasénie_de_Schreber</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bras%C3%A9nie_de_Schreber</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Médicaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Brasénie de Schreber est utilisé à des fins médicinales par les aborigènes américains pour ses propriétés anthelminthiques et astringentes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brasénie_de_Schreber</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bras%C3%A9nie_de_Schreber</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Horticole</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est aussi utilisée comme plante ornementale des bordures des étangs.
 </t>
         </is>
       </c>
